--- a/工作日志/贵州2019新网站列表 .xlsx.xlsx
+++ b/工作日志/贵州2019新网站列表 .xlsx.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20925" windowHeight="9330"/>
+    <workbookView windowWidth="10125" windowHeight="9510"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -6856,9 +6856,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="177" formatCode="[$-1010804]General"/>
@@ -7071,15 +7071,16 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7099,36 +7100,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -7145,24 +7116,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7178,7 +7133,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7192,9 +7170,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7207,6 +7200,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7256,19 +7256,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7280,19 +7292,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7304,31 +7328,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7340,43 +7346,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7406,7 +7394,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7424,7 +7412,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7466,6 +7466,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -7480,17 +7495,44 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7512,53 +7554,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7570,10 +7570,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7582,16 +7582,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7600,121 +7600,121 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -8296,7 +8296,7 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1133475</xdr:colOff>
-      <xdr:row>524</xdr:row>
+      <xdr:row>266</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -8308,7 +8308,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2966085" y="36207700"/>
+          <a:off x="2966085" y="60706000"/>
           <a:ext cx="657225" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8332,7 +8332,7 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1142365</xdr:colOff>
-      <xdr:row>524</xdr:row>
+      <xdr:row>266</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -8344,7 +8344,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2966085" y="36207700"/>
+          <a:off x="2966085" y="60706000"/>
           <a:ext cx="666115" cy="666750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8368,7 +8368,7 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1133475</xdr:colOff>
-      <xdr:row>525</xdr:row>
+      <xdr:row>283</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -8380,7 +8380,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2966085" y="36436300"/>
+          <a:off x="2966085" y="64592200"/>
           <a:ext cx="657225" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8404,7 +8404,7 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1142365</xdr:colOff>
-      <xdr:row>525</xdr:row>
+      <xdr:row>284</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -8416,7 +8416,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2966085" y="36436300"/>
+          <a:off x="2966085" y="64820800"/>
           <a:ext cx="666115" cy="666750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8719,11 +8719,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr filterMode="1"/>
+  <sheetPr/>
   <dimension ref="A1:AA734"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+      <selection activeCell="C14" sqref="A1:X289"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -8827,7 +8827,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A2" s="10" t="s">
         <v>23</v>
       </c>
@@ -8883,7 +8883,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="21" hidden="1" customHeight="1" spans="1:21">
+    <row r="3" s="1" customFormat="1" ht="21" customHeight="1" spans="1:21">
       <c r="A3" s="10" t="s">
         <v>23</v>
       </c>
@@ -9074,7 +9074,7 @@
       <c r="V5" s="47"/>
       <c r="W5" s="47"/>
     </row>
-    <row r="6" s="1" customFormat="1" ht="19" hidden="1" customHeight="1" spans="1:23">
+    <row r="6" s="1" customFormat="1" ht="19" customHeight="1" spans="1:23">
       <c r="A6" s="10" t="s">
         <v>23</v>
       </c>
@@ -9196,7 +9196,7 @@
       <c r="V7" s="47"/>
       <c r="W7" s="47"/>
     </row>
-    <row r="8" s="2" customFormat="1" hidden="1" customHeight="1" spans="1:23">
+    <row r="8" s="2" customFormat="1" customHeight="1" spans="1:23">
       <c r="A8" s="23" t="s">
         <v>23</v>
       </c>
@@ -9257,7 +9257,7 @@
       <c r="V8" s="48"/>
       <c r="W8" s="48"/>
     </row>
-    <row r="9" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="9" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A9" s="10" t="s">
         <v>23</v>
       </c>
@@ -9316,7 +9316,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" s="3" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="10" s="3" customFormat="1" customHeight="1" spans="1:21">
       <c r="A10" s="28" t="s">
         <v>23</v>
       </c>
@@ -9377,7 +9377,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" s="3" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="11" s="3" customFormat="1" customHeight="1" spans="1:21">
       <c r="A11" s="28" t="s">
         <v>23</v>
       </c>
@@ -9438,7 +9438,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" s="3" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="12" s="3" customFormat="1" customHeight="1" spans="1:21">
       <c r="A12" s="28"/>
       <c r="B12" s="29"/>
       <c r="C12" s="28"/>
@@ -9468,7 +9468,7 @@
       </c>
       <c r="U12" s="28"/>
     </row>
-    <row r="13" s="3" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="13" s="3" customFormat="1" customHeight="1" spans="1:21">
       <c r="A13" s="28"/>
       <c r="B13" s="32" t="s">
         <v>101</v>
@@ -9597,7 +9597,7 @@
       </c>
       <c r="U15" s="28"/>
     </row>
-    <row r="16" s="2" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="16" s="2" customFormat="1" customHeight="1" spans="1:21">
       <c r="A16" s="23"/>
       <c r="B16" s="33" t="s">
         <v>111</v>
@@ -9638,7 +9638,7 @@
       </c>
       <c r="U16" s="23"/>
     </row>
-    <row r="17" s="2" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="17" s="2" customFormat="1" customHeight="1" spans="1:21">
       <c r="A17" s="23"/>
       <c r="B17" s="33" t="s">
         <v>111</v>
@@ -9679,7 +9679,7 @@
       </c>
       <c r="U17" s="23"/>
     </row>
-    <row r="18" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:23">
+    <row r="18" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A18" s="10"/>
       <c r="B18" s="9" t="s">
         <v>119</v>
@@ -9719,7 +9719,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:23">
+    <row r="19" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A19" s="10"/>
       <c r="B19" s="9" t="s">
         <v>119</v>
@@ -9746,7 +9746,7 @@
       <c r="V19" s="74"/>
       <c r="W19" s="43"/>
     </row>
-    <row r="20" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:23">
+    <row r="20" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A20" s="10"/>
       <c r="B20" s="9" t="s">
         <v>119</v>
@@ -9782,7 +9782,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:23">
+    <row r="21" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A21" s="10"/>
       <c r="B21" s="9" t="s">
         <v>119</v>
@@ -9860,7 +9860,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:23">
+    <row r="23" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A23" s="10"/>
       <c r="B23" s="9" t="s">
         <v>144</v>
@@ -9966,7 +9966,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" s="2" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="25" s="2" customFormat="1" customHeight="1" spans="1:21">
       <c r="A25" s="23"/>
       <c r="B25" s="33" t="s">
         <v>157</v>
@@ -10004,7 +10004,7 @@
       </c>
       <c r="U25" s="23"/>
     </row>
-    <row r="26" s="2" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="26" s="2" customFormat="1" customHeight="1" spans="1:21">
       <c r="A26" s="23"/>
       <c r="B26" s="33" t="s">
         <v>157</v>
@@ -10041,7 +10041,7 @@
       </c>
       <c r="U26" s="23"/>
     </row>
-    <row r="27" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="27" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A27" s="10"/>
       <c r="B27" s="9"/>
       <c r="C27" s="10"/>
@@ -10067,7 +10067,7 @@
       <c r="T27" s="16"/>
       <c r="U27" s="10"/>
     </row>
-    <row r="28" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="28" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A28" s="10" t="s">
         <v>23</v>
       </c>
@@ -10126,7 +10126,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="29" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="29" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A29" s="10" t="s">
         <v>23</v>
       </c>
@@ -10187,7 +10187,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="30" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A30" s="10" t="s">
         <v>23</v>
       </c>
@@ -10248,7 +10248,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" s="1" customFormat="1" ht="14" hidden="1" customHeight="1" spans="1:21">
+    <row r="31" s="1" customFormat="1" ht="14" customHeight="1" spans="1:21">
       <c r="A31" s="10" t="s">
         <v>23</v>
       </c>
@@ -10309,7 +10309,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="32" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A32" s="10" t="s">
         <v>23</v>
       </c>
@@ -10410,7 +10410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" s="1" customFormat="1" ht="21" hidden="1" customHeight="1" spans="1:21">
+    <row r="34" s="1" customFormat="1" ht="21" customHeight="1" spans="1:21">
       <c r="A34" s="10"/>
       <c r="B34" s="9"/>
       <c r="C34" s="10"/>
@@ -10849,7 +10849,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="41" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="41" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A41" s="10" t="s">
         <v>23</v>
       </c>
@@ -10904,7 +10904,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="42" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="42" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A42" s="10" t="s">
         <v>23</v>
       </c>
@@ -11585,7 +11585,7 @@
       </c>
       <c r="U52" s="10"/>
     </row>
-    <row r="53" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="53" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A53" s="10"/>
       <c r="B53" s="9"/>
       <c r="C53" s="10"/>
@@ -11752,7 +11752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="56" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A56" s="10"/>
       <c r="B56" s="9"/>
       <c r="C56" s="10"/>
@@ -15370,7 +15370,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="112" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A112" s="10" t="s">
         <v>23</v>
       </c>
@@ -15433,7 +15433,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="113" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A113" s="10" t="s">
         <v>23</v>
       </c>
@@ -15496,7 +15496,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="114" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A114" s="10" t="s">
         <v>23</v>
       </c>
@@ -15559,7 +15559,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="115" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="115" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A115" s="10" t="s">
         <v>23</v>
       </c>
@@ -15622,7 +15622,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="116" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A116" s="10" t="s">
         <v>23</v>
       </c>
@@ -15942,7 +15942,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="121" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="121" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A121" s="10" t="s">
         <v>23</v>
       </c>
@@ -16008,7 +16008,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="122" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="122" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A122" s="10" t="s">
         <v>23</v>
       </c>
@@ -16071,7 +16071,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="123" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="123" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A123" s="10" t="s">
         <v>23</v>
       </c>
@@ -16134,7 +16134,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="124" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="124" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A124" s="10" t="s">
         <v>23</v>
       </c>
@@ -16197,7 +16197,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="125" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="125" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A125" s="10" t="s">
         <v>23</v>
       </c>
@@ -16260,7 +16260,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="126" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="126" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A126" s="10" t="s">
         <v>23</v>
       </c>
@@ -16323,7 +16323,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="127" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="127" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A127" s="10" t="s">
         <v>23</v>
       </c>
@@ -16386,7 +16386,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="128" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="128" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A128" s="10" t="s">
         <v>23</v>
       </c>
@@ -16449,7 +16449,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="129" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="129" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A129" s="10" t="s">
         <v>23</v>
       </c>
@@ -16512,7 +16512,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="130" s="2" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="130" s="2" customFormat="1" customHeight="1" spans="1:21">
       <c r="A130" s="23" t="s">
         <v>23</v>
       </c>
@@ -16575,7 +16575,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="131" s="6" customFormat="1" hidden="1" customHeight="1" spans="1:27">
+    <row r="131" s="6" customFormat="1" customHeight="1" spans="1:27">
       <c r="A131" s="10" t="s">
         <v>23</v>
       </c>
@@ -16644,7 +16644,7 @@
       <c r="Z131" s="1"/>
       <c r="AA131" s="1"/>
     </row>
-    <row r="132" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="132" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A132" s="10" t="s">
         <v>23</v>
       </c>
@@ -16707,7 +16707,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="133" s="6" customFormat="1" hidden="1" customHeight="1" spans="1:27">
+    <row r="133" s="6" customFormat="1" customHeight="1" spans="1:27">
       <c r="A133" s="10" t="s">
         <v>23</v>
       </c>
@@ -16776,7 +16776,7 @@
       <c r="Z133" s="1"/>
       <c r="AA133" s="1"/>
     </row>
-    <row r="134" s="6" customFormat="1" hidden="1" customHeight="1" spans="1:27">
+    <row r="134" s="6" customFormat="1" customHeight="1" spans="1:27">
       <c r="A134" s="10" t="s">
         <v>23</v>
       </c>
@@ -16827,7 +16827,7 @@
       <c r="Z134" s="1"/>
       <c r="AA134" s="1"/>
     </row>
-    <row r="135" s="6" customFormat="1" hidden="1" customHeight="1" spans="1:27">
+    <row r="135" s="6" customFormat="1" customHeight="1" spans="1:27">
       <c r="A135" s="10" t="s">
         <v>23</v>
       </c>
@@ -16896,7 +16896,7 @@
       <c r="Z135" s="1"/>
       <c r="AA135" s="1"/>
     </row>
-    <row r="136" s="6" customFormat="1" hidden="1" customHeight="1" spans="1:27">
+    <row r="136" s="6" customFormat="1" customHeight="1" spans="1:27">
       <c r="A136" s="10" t="s">
         <v>23</v>
       </c>
@@ -16965,7 +16965,7 @@
       <c r="Z136" s="1"/>
       <c r="AA136" s="1"/>
     </row>
-    <row r="137" s="7" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="137" s="7" customFormat="1" customHeight="1" spans="1:22">
       <c r="A137" s="9" t="s">
         <v>23</v>
       </c>
@@ -21589,7 +21589,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="209" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="209" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A209" s="10" t="s">
         <v>23</v>
       </c>
@@ -21651,7 +21651,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="210" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="210" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A210" s="10" t="s">
         <v>23</v>
       </c>
@@ -21714,7 +21714,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="211" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="211" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A211" s="10" t="s">
         <v>23</v>
       </c>
@@ -21777,7 +21777,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="212" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="212" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A212" s="10" t="s">
         <v>23</v>
       </c>
@@ -21839,7 +21839,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="213" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="213" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A213" s="10" t="s">
         <v>23</v>
       </c>
@@ -21902,7 +21902,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="214" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="214" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A214" s="10" t="s">
         <v>23</v>
       </c>
@@ -21965,7 +21965,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="215" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="215" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A215" s="10" t="s">
         <v>23</v>
       </c>
@@ -22028,7 +22028,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="216" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="216" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A216" s="10" t="s">
         <v>23</v>
       </c>
@@ -22091,7 +22091,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="217" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="217" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A217" s="10" t="s">
         <v>23</v>
       </c>
@@ -22154,7 +22154,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="218" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="218" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A218" s="10" t="s">
         <v>23</v>
       </c>
@@ -22217,7 +22217,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="219" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="219" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A219" s="10" t="s">
         <v>23</v>
       </c>
@@ -22282,7 +22282,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="220" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="220" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A220" s="10" t="s">
         <v>23</v>
       </c>
@@ -22347,7 +22347,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="221" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="221" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A221" s="10" t="s">
         <v>23</v>
       </c>
@@ -22412,7 +22412,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="222" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="222" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A222" s="10" t="s">
         <v>23</v>
       </c>
@@ -22477,7 +22477,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="223" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="223" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A223" s="10" t="s">
         <v>23</v>
       </c>
@@ -22540,7 +22540,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="224" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="224" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A224" s="10" t="s">
         <v>23</v>
       </c>
@@ -22603,7 +22603,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="225" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="225" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A225" s="10" t="s">
         <v>23</v>
       </c>
@@ -22666,7 +22666,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="226" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="226" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A226" s="10" t="s">
         <v>23</v>
       </c>
@@ -22729,7 +22729,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="227" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="227" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A227" s="10" t="s">
         <v>23</v>
       </c>
@@ -22792,7 +22792,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="228" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="228" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A228" s="10" t="s">
         <v>23</v>
       </c>
@@ -22855,7 +22855,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="229" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="229" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A229" s="10" t="s">
         <v>23</v>
       </c>
@@ -22918,7 +22918,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="230" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="230" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A230" s="10" t="s">
         <v>23</v>
       </c>
@@ -22981,7 +22981,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="231" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="231" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A231" s="10" t="s">
         <v>23</v>
       </c>
@@ -23044,7 +23044,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="232" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="232" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A232" s="10" t="s">
         <v>23</v>
       </c>
@@ -23107,7 +23107,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="233" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="233" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A233" s="10" t="s">
         <v>23</v>
       </c>
@@ -23170,7 +23170,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="234" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="234" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A234" s="10" t="s">
         <v>23</v>
       </c>
@@ -23233,7 +23233,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="235" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="235" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A235" s="10" t="s">
         <v>23</v>
       </c>
@@ -23296,7 +23296,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="236" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="236" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A236" s="10" t="s">
         <v>23</v>
       </c>
@@ -23359,7 +23359,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="237" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="237" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A237" s="10" t="s">
         <v>23</v>
       </c>
@@ -23422,7 +23422,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="238" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="238" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A238" s="10" t="s">
         <v>23</v>
       </c>
@@ -23485,7 +23485,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="239" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="239" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A239" s="10" t="s">
         <v>23</v>
       </c>
@@ -23548,7 +23548,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="240" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="240" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A240" s="10" t="s">
         <v>23</v>
       </c>
@@ -23611,7 +23611,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="241" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="241" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A241" s="10" t="s">
         <v>23</v>
       </c>
@@ -23674,7 +23674,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="242" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="242" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A242" s="10" t="s">
         <v>23</v>
       </c>
@@ -23737,7 +23737,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="243" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="243" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A243" s="10" t="s">
         <v>23</v>
       </c>
@@ -23800,7 +23800,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="244" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="244" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A244" s="10" t="s">
         <v>23</v>
       </c>
@@ -23863,7 +23863,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="245" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="245" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A245" s="10" t="s">
         <v>23</v>
       </c>
@@ -23926,7 +23926,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="246" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="246" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A246" s="10" t="s">
         <v>23</v>
       </c>
@@ -23989,7 +23989,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="247" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="247" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A247" s="10" t="s">
         <v>23</v>
       </c>
@@ -24052,7 +24052,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="248" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="248" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A248" s="10" t="s">
         <v>23</v>
       </c>
@@ -24115,7 +24115,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="249" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="249" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A249" s="10" t="s">
         <v>23</v>
       </c>
@@ -24178,7 +24178,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="250" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="250" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A250" s="10" t="s">
         <v>23</v>
       </c>
@@ -24241,7 +24241,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="251" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="251" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A251" s="10" t="s">
         <v>23</v>
       </c>
@@ -24304,7 +24304,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="252" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="252" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A252" s="10" t="s">
         <v>23</v>
       </c>
@@ -24367,7 +24367,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="253" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="253" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A253" s="10" t="s">
         <v>23</v>
       </c>
@@ -24430,7 +24430,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="254" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="254" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A254" s="10" t="s">
         <v>23</v>
       </c>
@@ -24493,7 +24493,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="255" s="6" customFormat="1" hidden="1" customHeight="1" spans="1:27">
+    <row r="255" s="6" customFormat="1" customHeight="1" spans="1:27">
       <c r="A255" s="10" t="s">
         <v>23</v>
       </c>
@@ -24558,7 +24558,7 @@
       <c r="Z255" s="1"/>
       <c r="AA255" s="1"/>
     </row>
-    <row r="256" s="6" customFormat="1" hidden="1" customHeight="1" spans="1:27">
+    <row r="256" s="6" customFormat="1" customHeight="1" spans="1:27">
       <c r="A256" s="10" t="s">
         <v>23</v>
       </c>
@@ -24623,7 +24623,7 @@
       <c r="Z256" s="1"/>
       <c r="AA256" s="1"/>
     </row>
-    <row r="257" s="6" customFormat="1" hidden="1" customHeight="1" spans="1:27">
+    <row r="257" s="6" customFormat="1" customHeight="1" spans="1:27">
       <c r="A257" s="10" t="s">
         <v>23</v>
       </c>
@@ -24692,7 +24692,7 @@
       <c r="Z257" s="1"/>
       <c r="AA257" s="1"/>
     </row>
-    <row r="258" s="6" customFormat="1" hidden="1" customHeight="1" spans="1:27">
+    <row r="258" s="6" customFormat="1" customHeight="1" spans="1:27">
       <c r="A258" s="10" t="s">
         <v>23</v>
       </c>
@@ -24757,7 +24757,7 @@
       <c r="Z258" s="1"/>
       <c r="AA258" s="1"/>
     </row>
-    <row r="259" s="6" customFormat="1" hidden="1" customHeight="1" spans="1:27">
+    <row r="259" s="6" customFormat="1" customHeight="1" spans="1:27">
       <c r="A259" s="10" t="s">
         <v>23</v>
       </c>
@@ -24822,7 +24822,7 @@
       <c r="Z259" s="1"/>
       <c r="AA259" s="1"/>
     </row>
-    <row r="260" s="6" customFormat="1" hidden="1" customHeight="1" spans="1:27">
+    <row r="260" s="6" customFormat="1" customHeight="1" spans="1:27">
       <c r="A260" s="10" t="s">
         <v>23</v>
       </c>
@@ -24887,7 +24887,7 @@
       <c r="Z260" s="1"/>
       <c r="AA260" s="1"/>
     </row>
-    <row r="261" s="6" customFormat="1" hidden="1" customHeight="1" spans="1:27">
+    <row r="261" s="6" customFormat="1" customHeight="1" spans="1:27">
       <c r="A261" s="10" t="s">
         <v>23</v>
       </c>
@@ -24952,7 +24952,7 @@
       <c r="Z261" s="1"/>
       <c r="AA261" s="1"/>
     </row>
-    <row r="262" s="6" customFormat="1" hidden="1" customHeight="1" spans="1:27">
+    <row r="262" s="6" customFormat="1" customHeight="1" spans="1:27">
       <c r="A262" s="10" t="s">
         <v>23</v>
       </c>
@@ -25017,7 +25017,7 @@
       <c r="Z262" s="1"/>
       <c r="AA262" s="1"/>
     </row>
-    <row r="263" s="6" customFormat="1" hidden="1" customHeight="1" spans="1:27">
+    <row r="263" s="6" customFormat="1" customHeight="1" spans="1:27">
       <c r="A263" s="10" t="s">
         <v>23</v>
       </c>
@@ -25082,7 +25082,7 @@
       <c r="Z263" s="1"/>
       <c r="AA263" s="1"/>
     </row>
-    <row r="264" s="6" customFormat="1" hidden="1" customHeight="1" spans="1:27">
+    <row r="264" s="6" customFormat="1" customHeight="1" spans="1:27">
       <c r="A264" s="10" t="s">
         <v>23</v>
       </c>
@@ -25147,7 +25147,7 @@
       <c r="Z264" s="1"/>
       <c r="AA264" s="1"/>
     </row>
-    <row r="265" s="6" customFormat="1" hidden="1" customHeight="1" spans="1:27">
+    <row r="265" s="6" customFormat="1" customHeight="1" spans="1:27">
       <c r="A265" s="10" t="s">
         <v>23</v>
       </c>
@@ -25212,7 +25212,7 @@
       <c r="Z265" s="1"/>
       <c r="AA265" s="1"/>
     </row>
-    <row r="266" s="6" customFormat="1" hidden="1" customHeight="1" spans="1:27">
+    <row r="266" s="6" customFormat="1" customHeight="1" spans="1:27">
       <c r="A266" s="10" t="s">
         <v>23</v>
       </c>
@@ -25277,7 +25277,7 @@
       <c r="Z266" s="1"/>
       <c r="AA266" s="1"/>
     </row>
-    <row r="267" s="6" customFormat="1" hidden="1" customHeight="1" spans="1:27">
+    <row r="267" s="6" customFormat="1" customHeight="1" spans="1:27">
       <c r="A267" s="10" t="s">
         <v>23</v>
       </c>
@@ -25342,7 +25342,7 @@
       <c r="Z267" s="1"/>
       <c r="AA267" s="1"/>
     </row>
-    <row r="268" s="6" customFormat="1" hidden="1" customHeight="1" spans="1:27">
+    <row r="268" s="6" customFormat="1" customHeight="1" spans="1:27">
       <c r="A268" s="10" t="s">
         <v>23</v>
       </c>
@@ -25478,7 +25478,7 @@
       <c r="Z269" s="1"/>
       <c r="AA269" s="1"/>
     </row>
-    <row r="270" s="6" customFormat="1" hidden="1" customHeight="1" spans="1:27">
+    <row r="270" s="6" customFormat="1" customHeight="1" spans="1:27">
       <c r="A270" s="10" t="s">
         <v>23</v>
       </c>
@@ -25541,7 +25541,7 @@
       <c r="Z270" s="1"/>
       <c r="AA270" s="1"/>
     </row>
-    <row r="271" s="6" customFormat="1" hidden="1" customHeight="1" spans="1:27">
+    <row r="271" s="6" customFormat="1" customHeight="1" spans="1:27">
       <c r="A271" s="10" t="s">
         <v>23</v>
       </c>
@@ -25604,7 +25604,7 @@
       <c r="Z271" s="1"/>
       <c r="AA271" s="1"/>
     </row>
-    <row r="272" s="6" customFormat="1" hidden="1" customHeight="1" spans="1:27">
+    <row r="272" s="6" customFormat="1" customHeight="1" spans="1:27">
       <c r="A272" s="10" t="s">
         <v>23</v>
       </c>
@@ -25667,7 +25667,7 @@
       <c r="Z272" s="1"/>
       <c r="AA272" s="1"/>
     </row>
-    <row r="273" s="6" customFormat="1" hidden="1" customHeight="1" spans="1:27">
+    <row r="273" s="6" customFormat="1" customHeight="1" spans="1:27">
       <c r="A273" s="10" t="s">
         <v>23</v>
       </c>
@@ -25730,7 +25730,7 @@
       <c r="Z273" s="1"/>
       <c r="AA273" s="1"/>
     </row>
-    <row r="274" s="6" customFormat="1" hidden="1" customHeight="1" spans="1:27">
+    <row r="274" s="6" customFormat="1" customHeight="1" spans="1:27">
       <c r="A274" s="10" t="s">
         <v>23</v>
       </c>
@@ -25793,7 +25793,7 @@
       <c r="Z274" s="1"/>
       <c r="AA274" s="1"/>
     </row>
-    <row r="275" s="6" customFormat="1" hidden="1" customHeight="1" spans="1:27">
+    <row r="275" s="6" customFormat="1" customHeight="1" spans="1:27">
       <c r="A275" s="10" t="s">
         <v>23</v>
       </c>
@@ -25856,7 +25856,7 @@
       <c r="Z275" s="1"/>
       <c r="AA275" s="1"/>
     </row>
-    <row r="276" s="6" customFormat="1" hidden="1" customHeight="1" spans="1:27">
+    <row r="276" s="6" customFormat="1" customHeight="1" spans="1:27">
       <c r="A276" s="10" t="s">
         <v>23</v>
       </c>
@@ -25919,7 +25919,7 @@
       <c r="Z276" s="1"/>
       <c r="AA276" s="1"/>
     </row>
-    <row r="277" s="6" customFormat="1" hidden="1" customHeight="1" spans="1:27">
+    <row r="277" s="6" customFormat="1" customHeight="1" spans="1:27">
       <c r="A277" s="10" t="s">
         <v>23</v>
       </c>
@@ -25982,7 +25982,7 @@
       <c r="Z277" s="1"/>
       <c r="AA277" s="1"/>
     </row>
-    <row r="278" s="6" customFormat="1" hidden="1" customHeight="1" spans="1:27">
+    <row r="278" s="6" customFormat="1" customHeight="1" spans="1:27">
       <c r="A278" s="10" t="s">
         <v>23</v>
       </c>
@@ -26045,7 +26045,7 @@
       <c r="Z278" s="1"/>
       <c r="AA278" s="1"/>
     </row>
-    <row r="279" s="6" customFormat="1" hidden="1" customHeight="1" spans="1:27">
+    <row r="279" s="6" customFormat="1" customHeight="1" spans="1:27">
       <c r="A279" s="10" t="s">
         <v>23</v>
       </c>
@@ -26108,7 +26108,7 @@
       <c r="Z279" s="1"/>
       <c r="AA279" s="1"/>
     </row>
-    <row r="280" s="6" customFormat="1" hidden="1" customHeight="1" spans="1:27">
+    <row r="280" s="6" customFormat="1" customHeight="1" spans="1:27">
       <c r="A280" s="10" t="s">
         <v>23</v>
       </c>
@@ -26171,7 +26171,7 @@
       <c r="Z280" s="1"/>
       <c r="AA280" s="1"/>
     </row>
-    <row r="281" s="6" customFormat="1" hidden="1" customHeight="1" spans="1:27">
+    <row r="281" s="6" customFormat="1" customHeight="1" spans="1:27">
       <c r="A281" s="10" t="s">
         <v>23</v>
       </c>
@@ -26234,7 +26234,7 @@
       <c r="Z281" s="1"/>
       <c r="AA281" s="1"/>
     </row>
-    <row r="282" s="6" customFormat="1" hidden="1" customHeight="1" spans="1:27">
+    <row r="282" s="6" customFormat="1" customHeight="1" spans="1:27">
       <c r="A282" s="10" t="s">
         <v>23</v>
       </c>
@@ -26297,7 +26297,7 @@
       <c r="Z282" s="1"/>
       <c r="AA282" s="1"/>
     </row>
-    <row r="283" s="6" customFormat="1" hidden="1" customHeight="1" spans="1:27">
+    <row r="283" s="6" customFormat="1" customHeight="1" spans="1:27">
       <c r="A283" s="10" t="s">
         <v>23</v>
       </c>
@@ -26360,7 +26360,7 @@
       <c r="Z283" s="1"/>
       <c r="AA283" s="1"/>
     </row>
-    <row r="284" s="6" customFormat="1" hidden="1" customHeight="1" spans="1:27">
+    <row r="284" s="6" customFormat="1" customHeight="1" spans="1:27">
       <c r="A284" s="10" t="s">
         <v>23</v>
       </c>
@@ -26423,7 +26423,7 @@
       <c r="Z284" s="1"/>
       <c r="AA284" s="1"/>
     </row>
-    <row r="285" s="6" customFormat="1" hidden="1" customHeight="1" spans="1:27">
+    <row r="285" s="6" customFormat="1" customHeight="1" spans="1:27">
       <c r="A285" s="10" t="s">
         <v>23</v>
       </c>
@@ -26486,7 +26486,7 @@
       <c r="Z285" s="1"/>
       <c r="AA285" s="1"/>
     </row>
-    <row r="286" s="6" customFormat="1" hidden="1" customHeight="1" spans="1:27">
+    <row r="286" s="6" customFormat="1" customHeight="1" spans="1:27">
       <c r="A286" s="10" t="s">
         <v>23</v>
       </c>
@@ -26549,7 +26549,7 @@
       <c r="Z286" s="1"/>
       <c r="AA286" s="1"/>
     </row>
-    <row r="287" s="6" customFormat="1" hidden="1" customHeight="1" spans="1:27">
+    <row r="287" s="6" customFormat="1" customHeight="1" spans="1:27">
       <c r="A287" s="10" t="s">
         <v>23</v>
       </c>
@@ -26612,7 +26612,7 @@
       <c r="Z287" s="1"/>
       <c r="AA287" s="1"/>
     </row>
-    <row r="288" s="6" customFormat="1" hidden="1" customHeight="1" spans="1:27">
+    <row r="288" s="6" customFormat="1" customHeight="1" spans="1:27">
       <c r="A288" s="10" t="s">
         <v>23</v>
       </c>
@@ -26675,7 +26675,7 @@
       <c r="Z288" s="1"/>
       <c r="AA288" s="1"/>
     </row>
-    <row r="289" s="6" customFormat="1" hidden="1" customHeight="1" spans="1:27">
+    <row r="289" s="6" customFormat="1" customHeight="1" spans="1:27">
       <c r="A289" s="10" t="s">
         <v>23</v>
       </c>
@@ -26738,15 +26738,15 @@
       <c r="Z289" s="1"/>
       <c r="AA289" s="1"/>
     </row>
-    <row r="290" s="6" customFormat="1" hidden="1" customHeight="1" spans="15:20">
+    <row r="290" s="6" customFormat="1" customHeight="1" spans="15:20">
       <c r="O290" s="120"/>
       <c r="T290" s="7"/>
     </row>
-    <row r="291" s="6" customFormat="1" hidden="1" customHeight="1" spans="15:20">
+    <row r="291" s="6" customFormat="1" customHeight="1" spans="15:20">
       <c r="O291" s="120"/>
       <c r="T291" s="7"/>
     </row>
-    <row r="292" s="6" customFormat="1" hidden="1" customHeight="1" spans="1:27">
+    <row r="292" s="6" customFormat="1" customHeight="1" spans="1:27">
       <c r="A292" s="10" t="s">
         <v>23</v>
       </c>
@@ -26809,7 +26809,7 @@
       <c r="Z292" s="1"/>
       <c r="AA292" s="1"/>
     </row>
-    <row r="293" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="293" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A293" s="10" t="s">
         <v>23</v>
       </c>
@@ -26869,7 +26869,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="294" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="294" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A294" s="10" t="s">
         <v>23</v>
       </c>
@@ -26929,7 +26929,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="295" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="295" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A295" s="10" t="s">
         <v>23</v>
       </c>
@@ -26989,7 +26989,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="296" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="296" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A296" s="10" t="s">
         <v>23</v>
       </c>
@@ -27049,7 +27049,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="297" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="297" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A297" s="10" t="s">
         <v>23</v>
       </c>
@@ -27109,7 +27109,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="298" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="298" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A298" s="10" t="s">
         <v>23</v>
       </c>
@@ -27169,7 +27169,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="299" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="299" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A299" s="10" t="s">
         <v>23</v>
       </c>
@@ -27229,7 +27229,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="300" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="300" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A300" s="10" t="s">
         <v>23</v>
       </c>
@@ -27289,7 +27289,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="301" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="301" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A301" s="10" t="s">
         <v>23</v>
       </c>
@@ -27349,7 +27349,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="302" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="302" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A302" s="10" t="s">
         <v>23</v>
       </c>
@@ -27409,7 +27409,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="303" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="303" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A303" s="10" t="s">
         <v>23</v>
       </c>
@@ -27469,7 +27469,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="304" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="304" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A304" s="10" t="s">
         <v>23</v>
       </c>
@@ -27529,7 +27529,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="305" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="305" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A305" s="10" t="s">
         <v>23</v>
       </c>
@@ -27589,7 +27589,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="306" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="306" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A306" s="10" t="s">
         <v>23</v>
       </c>
@@ -27649,7 +27649,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="307" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="307" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A307" s="10" t="s">
         <v>23</v>
       </c>
@@ -27709,7 +27709,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="308" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="308" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A308" s="10" t="s">
         <v>23</v>
       </c>
@@ -27769,7 +27769,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="309" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="309" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A309" s="10" t="s">
         <v>23</v>
       </c>
@@ -27829,7 +27829,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="310" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="310" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A310" s="10" t="s">
         <v>23</v>
       </c>
@@ -27889,7 +27889,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="311" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="311" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A311" s="10" t="s">
         <v>23</v>
       </c>
@@ -27949,7 +27949,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="312" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="312" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A312" s="10" t="s">
         <v>23</v>
       </c>
@@ -28009,7 +28009,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="313" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="313" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A313" s="10" t="s">
         <v>23</v>
       </c>
@@ -28069,7 +28069,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="314" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="314" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A314" s="10" t="s">
         <v>23</v>
       </c>
@@ -28129,7 +28129,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="315" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="315" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A315" s="10" t="s">
         <v>23</v>
       </c>
@@ -28189,7 +28189,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="316" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="316" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A316" s="10" t="s">
         <v>23</v>
       </c>
@@ -28249,7 +28249,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="317" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="317" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A317" s="10" t="s">
         <v>23</v>
       </c>
@@ -28309,7 +28309,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="318" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="318" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A318" s="10" t="s">
         <v>23</v>
       </c>
@@ -28369,7 +28369,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="319" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="319" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A319" s="10" t="s">
         <v>23</v>
       </c>
@@ -28429,7 +28429,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="320" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="320" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A320" s="10" t="s">
         <v>23</v>
       </c>
@@ -28489,7 +28489,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="321" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="321" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A321" s="10" t="s">
         <v>23</v>
       </c>
@@ -28549,7 +28549,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="322" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="322" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A322" s="10" t="s">
         <v>23</v>
       </c>
@@ -28609,7 +28609,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="323" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="323" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A323" s="10" t="s">
         <v>23</v>
       </c>
@@ -28669,7 +28669,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="324" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="324" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A324" s="10" t="s">
         <v>23</v>
       </c>
@@ -28729,7 +28729,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="325" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="325" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A325" s="10" t="s">
         <v>23</v>
       </c>
@@ -28789,7 +28789,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="326" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="326" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A326" s="10" t="s">
         <v>23</v>
       </c>
@@ -28849,7 +28849,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="327" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="327" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A327" s="10" t="s">
         <v>23</v>
       </c>
@@ -28909,7 +28909,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="328" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="328" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A328" s="10" t="s">
         <v>23</v>
       </c>
@@ -28969,7 +28969,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="329" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="329" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A329" s="10" t="s">
         <v>23</v>
       </c>
@@ -29029,7 +29029,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="330" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="330" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A330" s="10" t="s">
         <v>23</v>
       </c>
@@ -29089,7 +29089,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="331" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="331" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A331" s="10" t="s">
         <v>23</v>
       </c>
@@ -29149,7 +29149,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="332" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="332" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A332" s="10" t="s">
         <v>23</v>
       </c>
@@ -29209,7 +29209,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="333" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="333" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A333" s="10" t="s">
         <v>23</v>
       </c>
@@ -29269,7 +29269,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="334" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="334" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A334" s="10" t="s">
         <v>23</v>
       </c>
@@ -29329,7 +29329,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="335" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="335" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A335" s="10" t="s">
         <v>23</v>
       </c>
@@ -29389,7 +29389,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="336" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="336" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A336" s="10" t="s">
         <v>23</v>
       </c>
@@ -29449,7 +29449,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="337" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="337" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A337" s="10" t="s">
         <v>23</v>
       </c>
@@ -29509,7 +29509,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="338" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="338" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A338" s="10" t="s">
         <v>23</v>
       </c>
@@ -29569,7 +29569,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="339" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="339" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A339" s="10" t="s">
         <v>23</v>
       </c>
@@ -29629,7 +29629,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="340" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="340" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A340" s="10" t="s">
         <v>23</v>
       </c>
@@ -29689,7 +29689,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="341" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="341" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A341" s="10" t="s">
         <v>23</v>
       </c>
@@ -29749,7 +29749,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="342" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="342" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A342" s="10" t="s">
         <v>23</v>
       </c>
@@ -29809,7 +29809,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="343" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="343" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A343" s="10" t="s">
         <v>23</v>
       </c>
@@ -29869,7 +29869,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="344" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="344" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A344" s="10" t="s">
         <v>23</v>
       </c>
@@ -29929,7 +29929,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="345" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="345" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A345" s="10" t="s">
         <v>23</v>
       </c>
@@ -29989,7 +29989,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="346" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="346" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A346" s="10" t="s">
         <v>23</v>
       </c>
@@ -30049,7 +30049,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="347" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="347" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A347" s="10" t="s">
         <v>23</v>
       </c>
@@ -30109,7 +30109,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="348" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="348" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A348" s="10" t="s">
         <v>23</v>
       </c>
@@ -30169,7 +30169,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="349" s="5" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="349" s="5" customFormat="1" customHeight="1" spans="1:22">
       <c r="A349" s="81" t="s">
         <v>23</v>
       </c>
@@ -30232,7 +30232,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="350" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="350" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A350" s="10" t="s">
         <v>23</v>
       </c>
@@ -30295,7 +30295,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="351" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="351" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A351" s="10" t="s">
         <v>23</v>
       </c>
@@ -30355,7 +30355,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="352" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="352" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A352" s="10" t="s">
         <v>23</v>
       </c>
@@ -30420,7 +30420,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="353" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="353" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A353" s="10" t="s">
         <v>23</v>
       </c>
@@ -30480,7 +30480,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="354" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="354" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A354" s="10" t="s">
         <v>23</v>
       </c>
@@ -30545,7 +30545,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="355" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="355" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A355" s="10" t="s">
         <v>23</v>
       </c>
@@ -30608,7 +30608,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="356" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="356" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A356" s="10" t="s">
         <v>23</v>
       </c>
@@ -30668,7 +30668,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="357" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="357" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A357" s="10" t="s">
         <v>23</v>
       </c>
@@ -30731,7 +30731,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="358" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="358" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A358" s="10" t="s">
         <v>23</v>
       </c>
@@ -30794,7 +30794,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="359" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="359" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A359" s="10" t="s">
         <v>23</v>
       </c>
@@ -30854,7 +30854,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="360" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="360" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A360" s="10" t="s">
         <v>23</v>
       </c>
@@ -30916,7 +30916,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="361" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="361" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A361" s="10" t="s">
         <v>23</v>
       </c>
@@ -30981,7 +30981,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="362" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="362" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A362" s="10" t="s">
         <v>23</v>
       </c>
@@ -31043,7 +31043,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="363" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="363" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A363" s="10" t="s">
         <v>23</v>
       </c>
@@ -31103,7 +31103,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="364" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="364" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A364" s="10" t="s">
         <v>23</v>
       </c>
@@ -31163,7 +31163,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="365" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="365" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A365" s="10" t="s">
         <v>23</v>
       </c>
@@ -31228,7 +31228,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="366" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="366" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A366" s="10" t="s">
         <v>23</v>
       </c>
@@ -31291,7 +31291,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="367" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="367" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A367" s="10" t="s">
         <v>23</v>
       </c>
@@ -31354,7 +31354,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="368" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="368" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A368" s="10" t="s">
         <v>23</v>
       </c>
@@ -31417,7 +31417,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="369" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="369" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A369" s="10" t="s">
         <v>23</v>
       </c>
@@ -31480,7 +31480,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="370" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="370" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A370" s="10" t="s">
         <v>23</v>
       </c>
@@ -31543,7 +31543,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="371" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="371" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A371" s="10" t="s">
         <v>23</v>
       </c>
@@ -31606,7 +31606,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="372" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="372" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A372" s="10" t="s">
         <v>23</v>
       </c>
@@ -31669,7 +31669,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="373" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="373" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A373" s="10" t="s">
         <v>23</v>
       </c>
@@ -31731,7 +31731,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="374" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="374" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A374" s="10" t="s">
         <v>23</v>
       </c>
@@ -31796,7 +31796,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="375" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="375" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A375" s="10" t="s">
         <v>23</v>
       </c>
@@ -31854,7 +31854,7 @@
       </c>
       <c r="U375" s="10"/>
     </row>
-    <row r="376" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="376" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A376" s="10" t="s">
         <v>23</v>
       </c>
@@ -31917,7 +31917,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="377" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="377" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A377" s="10" t="s">
         <v>23</v>
       </c>
@@ -31980,7 +31980,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="378" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="378" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A378" s="10" t="s">
         <v>23</v>
       </c>
@@ -32040,7 +32040,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="379" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="379" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A379" s="10" t="s">
         <v>23</v>
       </c>
@@ -32099,7 +32099,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="380" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="380" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A380" s="10" t="s">
         <v>23</v>
       </c>
@@ -32162,7 +32162,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="381" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="381" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A381" s="10" t="s">
         <v>23</v>
       </c>
@@ -32227,7 +32227,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="382" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="382" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A382" s="10" t="s">
         <v>23</v>
       </c>
@@ -32290,7 +32290,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="383" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="383" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A383" s="10" t="s">
         <v>23</v>
       </c>
@@ -32350,7 +32350,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="384" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="384" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A384" s="10" t="s">
         <v>23</v>
       </c>
@@ -32413,7 +32413,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="385" s="2" customFormat="1" hidden="1" customHeight="1" spans="1:23">
+    <row r="385" s="2" customFormat="1" customHeight="1" spans="1:23">
       <c r="A385" s="23" t="s">
         <v>23</v>
       </c>
@@ -32478,7 +32478,7 @@
       </c>
       <c r="W385" s="5"/>
     </row>
-    <row r="386" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:23">
+    <row r="386" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A386" s="10" t="s">
         <v>23</v>
       </c>
@@ -32543,7 +32543,7 @@
       </c>
       <c r="W386" s="5"/>
     </row>
-    <row r="387" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="387" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A387" s="10" t="s">
         <v>23</v>
       </c>
@@ -32602,7 +32602,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="388" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="388" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A388" s="10" t="s">
         <v>23</v>
       </c>
@@ -32665,7 +32665,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="389" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="389" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A389" s="10" t="s">
         <v>23</v>
       </c>
@@ -32728,7 +32728,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="390" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="390" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A390" s="10" t="s">
         <v>23</v>
       </c>
@@ -32791,7 +32791,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="391" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="391" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A391" s="10" t="s">
         <v>23</v>
       </c>
@@ -32854,7 +32854,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="392" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="392" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A392" s="10" t="s">
         <v>23</v>
       </c>
@@ -32917,7 +32917,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="393" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="393" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A393" s="10" t="s">
         <v>23</v>
       </c>
@@ -32977,7 +32977,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="394" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="394" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A394" s="10" t="s">
         <v>23</v>
       </c>
@@ -33040,7 +33040,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="395" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="395" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A395" s="10" t="s">
         <v>23</v>
       </c>
@@ -33100,7 +33100,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="396" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="396" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A396" s="10" t="s">
         <v>23</v>
       </c>
@@ -33163,7 +33163,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="397" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="397" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A397" s="10" t="s">
         <v>23</v>
       </c>
@@ -33221,7 +33221,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="398" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="398" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A398" s="10" t="s">
         <v>23</v>
       </c>
@@ -33281,7 +33281,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="399" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="399" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A399" s="10" t="s">
         <v>23</v>
       </c>
@@ -33344,7 +33344,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="400" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="400" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A400" s="10" t="s">
         <v>23</v>
       </c>
@@ -33407,7 +33407,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="401" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="401" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A401" s="10" t="s">
         <v>23</v>
       </c>
@@ -33467,7 +33467,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="402" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="402" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A402" s="10" t="s">
         <v>23</v>
       </c>
@@ -33530,7 +33530,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="403" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="403" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A403" s="10" t="s">
         <v>23</v>
       </c>
@@ -33590,7 +33590,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="404" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="404" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A404" s="10" t="s">
         <v>23</v>
       </c>
@@ -33650,7 +33650,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="405" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="405" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A405" s="10" t="s">
         <v>23</v>
       </c>
@@ -33710,7 +33710,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="406" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:23">
+    <row r="406" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A406" s="10" t="s">
         <v>23</v>
       </c>
@@ -33776,7 +33776,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="407" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="407" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A407" s="10" t="s">
         <v>23</v>
       </c>
@@ -33839,7 +33839,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="408" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="408" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A408" s="10" t="s">
         <v>23</v>
       </c>
@@ -33902,7 +33902,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="409" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="409" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A409" s="10" t="s">
         <v>23</v>
       </c>
@@ -33965,7 +33965,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="410" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="410" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A410" s="10" t="s">
         <v>23</v>
       </c>
@@ -34025,7 +34025,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="411" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="411" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A411" s="10" t="s">
         <v>23</v>
       </c>
@@ -34088,7 +34088,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="412" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="412" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A412" s="10" t="s">
         <v>23</v>
       </c>
@@ -34148,7 +34148,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="413" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="413" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A413" s="10" t="s">
         <v>23</v>
       </c>
@@ -34208,7 +34208,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="414" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="414" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A414" s="10" t="s">
         <v>23</v>
       </c>
@@ -34268,7 +34268,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="415" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="415" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A415" s="10" t="s">
         <v>23</v>
       </c>
@@ -34331,7 +34331,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="416" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="416" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A416" s="10" t="s">
         <v>23</v>
       </c>
@@ -34391,7 +34391,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="417" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="417" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A417" s="10" t="s">
         <v>23</v>
       </c>
@@ -34454,7 +34454,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="418" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="418" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A418" s="10" t="s">
         <v>23</v>
       </c>
@@ -34512,7 +34512,7 @@
       </c>
       <c r="U418" s="10"/>
     </row>
-    <row r="419" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="419" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A419" s="10" t="s">
         <v>23</v>
       </c>
@@ -34572,7 +34572,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="420" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="420" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A420" s="10" t="s">
         <v>23</v>
       </c>
@@ -34632,7 +34632,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="421" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="421" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A421" s="10" t="s">
         <v>23</v>
       </c>
@@ -34692,7 +34692,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="422" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="422" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A422" s="10" t="s">
         <v>23</v>
       </c>
@@ -34752,7 +34752,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="423" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="423" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A423" s="10" t="s">
         <v>23</v>
       </c>
@@ -34815,7 +34815,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="424" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="424" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A424" s="10" t="s">
         <v>23</v>
       </c>
@@ -34875,7 +34875,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="425" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="425" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A425" s="10" t="s">
         <v>23</v>
       </c>
@@ -34935,7 +34935,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="426" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="426" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A426" s="10" t="s">
         <v>23</v>
       </c>
@@ -34997,7 +34997,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="427" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="427" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A427" s="10" t="s">
         <v>23</v>
       </c>
@@ -35057,7 +35057,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="428" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="428" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A428" s="10" t="s">
         <v>23</v>
       </c>
@@ -35117,7 +35117,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="429" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="429" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A429" s="10" t="s">
         <v>23</v>
       </c>
@@ -35177,7 +35177,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="430" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="430" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A430" s="10" t="s">
         <v>23</v>
       </c>
@@ -35240,7 +35240,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="431" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="431" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A431" s="10" t="s">
         <v>23</v>
       </c>
@@ -35303,7 +35303,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="432" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="432" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A432" s="10" t="s">
         <v>23</v>
       </c>
@@ -35363,7 +35363,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="433" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="433" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A433" s="10" t="s">
         <v>23</v>
       </c>
@@ -35423,7 +35423,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="434" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="434" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A434" s="10" t="s">
         <v>23</v>
       </c>
@@ -35483,7 +35483,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="435" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="435" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A435" s="10" t="s">
         <v>23</v>
       </c>
@@ -35543,7 +35543,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="436" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="436" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A436" s="10" t="s">
         <v>23</v>
       </c>
@@ -35603,7 +35603,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="437" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="437" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A437" s="10" t="s">
         <v>23</v>
       </c>
@@ -35663,7 +35663,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="438" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="438" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A438" s="10" t="s">
         <v>23</v>
       </c>
@@ -35723,7 +35723,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="439" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="439" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A439" s="10" t="s">
         <v>23</v>
       </c>
@@ -35783,7 +35783,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="440" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="440" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A440" s="10" t="s">
         <v>23</v>
       </c>
@@ -35843,7 +35843,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="441" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="441" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A441" s="10" t="s">
         <v>23</v>
       </c>
@@ -35903,7 +35903,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="442" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="442" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A442" s="10" t="s">
         <v>23</v>
       </c>
@@ -35963,7 +35963,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="443" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="443" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A443" s="10" t="s">
         <v>23</v>
       </c>
@@ -36023,7 +36023,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="444" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="444" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A444" s="10" t="s">
         <v>23</v>
       </c>
@@ -36083,7 +36083,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="445" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="445" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A445" s="10" t="s">
         <v>23</v>
       </c>
@@ -36146,7 +36146,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="446" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="446" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A446" s="10" t="s">
         <v>23</v>
       </c>
@@ -36209,7 +36209,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="447" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="447" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A447" s="10" t="s">
         <v>23</v>
       </c>
@@ -36269,7 +36269,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="448" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="448" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A448" s="10" t="s">
         <v>23</v>
       </c>
@@ -36329,7 +36329,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="449" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="449" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A449" s="10" t="s">
         <v>23</v>
       </c>
@@ -36392,7 +36392,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="450" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="450" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A450" s="10" t="s">
         <v>23</v>
       </c>
@@ -36455,7 +36455,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="451" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="451" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A451" s="10" t="s">
         <v>23</v>
       </c>
@@ -36514,7 +36514,7 @@
       <c r="U451" s="81"/>
       <c r="V451" s="5"/>
     </row>
-    <row r="452" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="452" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A452" s="10" t="s">
         <v>23</v>
       </c>
@@ -36574,7 +36574,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="453" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="453" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A453" s="10" t="s">
         <v>23</v>
       </c>
@@ -36634,7 +36634,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="454" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="454" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A454" s="10" t="s">
         <v>23</v>
       </c>
@@ -36692,7 +36692,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="455" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="455" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A455" s="10" t="s">
         <v>23</v>
       </c>
@@ -36755,7 +36755,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="456" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="456" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A456" s="10" t="s">
         <v>23</v>
       </c>
@@ -36818,7 +36818,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="457" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="457" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A457" s="10" t="s">
         <v>23</v>
       </c>
@@ -36878,7 +36878,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="458" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="458" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A458" s="10" t="s">
         <v>23</v>
       </c>
@@ -36941,7 +36941,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="459" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="459" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A459" s="10" t="s">
         <v>23</v>
       </c>
@@ -37004,7 +37004,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="460" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="460" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A460" s="10" t="s">
         <v>23</v>
       </c>
@@ -37064,7 +37064,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="461" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="461" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A461" s="10" t="s">
         <v>23</v>
       </c>
@@ -37124,7 +37124,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="462" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="462" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A462" s="10" t="s">
         <v>23</v>
       </c>
@@ -37184,7 +37184,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="463" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="463" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A463" s="10" t="s">
         <v>23</v>
       </c>
@@ -37244,7 +37244,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="464" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="464" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A464" s="10" t="s">
         <v>23</v>
       </c>
@@ -37304,7 +37304,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="465" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="465" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A465" s="10" t="s">
         <v>23</v>
       </c>
@@ -37367,7 +37367,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="466" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="466" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A466" s="10" t="s">
         <v>23</v>
       </c>
@@ -37427,7 +37427,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="467" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="467" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A467" s="10" t="s">
         <v>23</v>
       </c>
@@ -37487,7 +37487,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="468" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="468" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A468" s="10" t="s">
         <v>23</v>
       </c>
@@ -37547,7 +37547,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="469" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="469" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A469" s="10" t="s">
         <v>23</v>
       </c>
@@ -37610,7 +37610,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="470" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="470" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A470" s="10" t="s">
         <v>23</v>
       </c>
@@ -37670,7 +37670,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="471" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="471" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A471" s="10" t="s">
         <v>23</v>
       </c>
@@ -37733,7 +37733,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="472" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="472" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A472" s="10" t="s">
         <v>23</v>
       </c>
@@ -37793,7 +37793,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="473" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="473" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A473" s="10" t="s">
         <v>23</v>
       </c>
@@ -37853,7 +37853,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="474" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="474" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A474" s="10" t="s">
         <v>23</v>
       </c>
@@ -37916,7 +37916,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="475" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="475" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A475" s="10" t="s">
         <v>23</v>
       </c>
@@ -37975,7 +37975,7 @@
       <c r="U475" s="81"/>
       <c r="V475" s="5"/>
     </row>
-    <row r="476" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="476" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A476" s="10" t="s">
         <v>23</v>
       </c>
@@ -38035,7 +38035,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="477" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="477" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A477" s="10" t="s">
         <v>23</v>
       </c>
@@ -38095,7 +38095,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="478" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="478" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A478" s="10" t="s">
         <v>23</v>
       </c>
@@ -38155,7 +38155,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="479" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="479" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A479" s="10" t="s">
         <v>23</v>
       </c>
@@ -38215,7 +38215,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="480" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="480" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A480" s="10" t="s">
         <v>23</v>
       </c>
@@ -38278,7 +38278,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="481" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="481" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A481" s="10" t="s">
         <v>23</v>
       </c>
@@ -38341,7 +38341,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="482" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="482" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A482" s="10" t="s">
         <v>23</v>
       </c>
@@ -38406,7 +38406,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="483" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="483" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A483" s="10" t="s">
         <v>23</v>
       </c>
@@ -38466,7 +38466,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="484" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="484" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A484" s="10" t="s">
         <v>23</v>
       </c>
@@ -38526,7 +38526,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="485" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="485" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A485" s="10" t="s">
         <v>23</v>
       </c>
@@ -38589,7 +38589,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="486" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="486" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A486" s="10" t="s">
         <v>23</v>
       </c>
@@ -38649,7 +38649,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="487" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="487" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A487" s="10" t="s">
         <v>23</v>
       </c>
@@ -38709,7 +38709,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="488" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="488" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A488" s="10" t="s">
         <v>23</v>
       </c>
@@ -38772,7 +38772,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="489" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="489" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A489" s="10" t="s">
         <v>23</v>
       </c>
@@ -38832,7 +38832,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="490" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="490" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A490" s="10" t="s">
         <v>23</v>
       </c>
@@ -38895,7 +38895,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="491" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="491" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A491" s="10" t="s">
         <v>23</v>
       </c>
@@ -38955,7 +38955,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="492" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="492" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A492" s="10" t="s">
         <v>23</v>
       </c>
@@ -39018,7 +39018,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="493" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="493" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A493" s="10" t="s">
         <v>23</v>
       </c>
@@ -39078,7 +39078,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="494" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="494" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A494" s="10" t="s">
         <v>23</v>
       </c>
@@ -39138,7 +39138,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="495" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="495" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A495" s="10" t="s">
         <v>23</v>
       </c>
@@ -39203,7 +39203,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="496" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="496" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A496" s="10" t="s">
         <v>23</v>
       </c>
@@ -39268,7 +39268,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="497" s="2" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="497" s="2" customFormat="1" customHeight="1" spans="1:21">
       <c r="A497" s="23" t="s">
         <v>23</v>
       </c>
@@ -39330,7 +39330,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="498" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="498" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A498" s="10" t="s">
         <v>23</v>
       </c>
@@ -39392,7 +39392,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="499" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="499" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A499" s="10" t="s">
         <v>23</v>
       </c>
@@ -39454,7 +39454,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="500" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="500" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A500" s="10" t="s">
         <v>23</v>
       </c>
@@ -39514,7 +39514,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="501" s="5" customFormat="1" hidden="1" customHeight="1" spans="1:24">
+    <row r="501" s="5" customFormat="1" customHeight="1" spans="1:24">
       <c r="A501" s="81" t="s">
         <v>23</v>
       </c>
@@ -39585,7 +39585,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="502" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="502" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A502" s="10" t="s">
         <v>23</v>
       </c>
@@ -39645,7 +39645,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="503" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="503" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A503" s="10" t="s">
         <v>23</v>
       </c>
@@ -39685,7 +39685,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="504" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="504" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A504" s="10" t="s">
         <v>23</v>
       </c>
@@ -39727,7 +39727,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="505" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="505" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A505" s="10" t="s">
         <v>23</v>
       </c>
@@ -39769,7 +39769,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="506" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="506" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A506" s="10" t="s">
         <v>23</v>
       </c>
@@ -39811,7 +39811,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="507" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="507" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A507" s="10" t="s">
         <v>23</v>
       </c>
@@ -39853,7 +39853,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="508" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="508" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A508" s="10" t="s">
         <v>23</v>
       </c>
@@ -39895,7 +39895,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="509" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="509" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A509" s="10" t="s">
         <v>23</v>
       </c>
@@ -39939,7 +39939,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="510" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="510" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A510" s="10" t="s">
         <v>23</v>
       </c>
@@ -39983,7 +39983,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="511" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="511" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A511" s="10" t="s">
         <v>23</v>
       </c>
@@ -40027,7 +40027,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="512" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="512" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A512" s="10" t="s">
         <v>23</v>
       </c>
@@ -40069,7 +40069,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="513" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="513" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A513" s="10" t="s">
         <v>23</v>
       </c>
@@ -40111,7 +40111,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="514" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="514" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A514" s="10" t="s">
         <v>23</v>
       </c>
@@ -40153,7 +40153,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="515" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="515" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A515" s="10" t="s">
         <v>23</v>
       </c>
@@ -40195,7 +40195,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="516" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="516" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A516" s="10" t="s">
         <v>23</v>
       </c>
@@ -40237,7 +40237,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="517" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="517" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A517" s="10" t="s">
         <v>23</v>
       </c>
@@ -40281,7 +40281,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="518" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="518" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A518" s="10" t="s">
         <v>23</v>
       </c>
@@ -40323,7 +40323,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="519" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="519" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A519" s="10" t="s">
         <v>23</v>
       </c>
@@ -40365,7 +40365,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="520" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="520" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A520" s="10" t="s">
         <v>23</v>
       </c>
@@ -40407,7 +40407,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="521" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:27">
+    <row r="521" s="1" customFormat="1" customHeight="1" spans="1:27">
       <c r="A521" s="10" t="s">
         <v>23</v>
       </c>
@@ -40452,7 +40452,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="522" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:27">
+    <row r="522" s="1" customFormat="1" customHeight="1" spans="1:27">
       <c r="A522" s="10" t="s">
         <v>23</v>
       </c>
@@ -40497,7 +40497,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="523" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:27">
+    <row r="523" s="1" customFormat="1" customHeight="1" spans="1:27">
       <c r="A523" s="10" t="s">
         <v>23</v>
       </c>
@@ -43279,7 +43279,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="570" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:27">
+    <row r="570" s="1" customFormat="1" customHeight="1" spans="1:27">
       <c r="A570" s="10" t="s">
         <v>23</v>
       </c>
@@ -43346,7 +43346,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="571" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:27">
+    <row r="571" s="1" customFormat="1" customHeight="1" spans="1:27">
       <c r="A571" s="10" t="s">
         <v>23</v>
       </c>
@@ -43411,7 +43411,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="572" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:27">
+    <row r="572" s="1" customFormat="1" customHeight="1" spans="1:27">
       <c r="A572" s="10" t="s">
         <v>23</v>
       </c>
@@ -43474,7 +43474,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="573" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:27">
+    <row r="573" s="1" customFormat="1" customHeight="1" spans="1:27">
       <c r="A573" s="10" t="s">
         <v>23</v>
       </c>
@@ -43536,7 +43536,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="574" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:27">
+    <row r="574" s="1" customFormat="1" customHeight="1" spans="1:27">
       <c r="A574" s="10" t="s">
         <v>23</v>
       </c>
@@ -43598,7 +43598,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="575" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:27">
+    <row r="575" s="1" customFormat="1" customHeight="1" spans="1:27">
       <c r="A575" s="10" t="s">
         <v>23</v>
       </c>
@@ -43658,7 +43658,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="576" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:27">
+    <row r="576" s="1" customFormat="1" customHeight="1" spans="1:27">
       <c r="A576" s="10" t="s">
         <v>23</v>
       </c>
@@ -43721,7 +43721,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="577" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:27">
+    <row r="577" s="1" customFormat="1" customHeight="1" spans="1:27">
       <c r="A577" s="10" t="s">
         <v>23</v>
       </c>
@@ -43780,7 +43780,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="578" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:27">
+    <row r="578" s="1" customFormat="1" customHeight="1" spans="1:27">
       <c r="A578" s="10" t="s">
         <v>23</v>
       </c>
@@ -43844,7 +43844,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="579" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:27">
+    <row r="579" s="1" customFormat="1" customHeight="1" spans="1:27">
       <c r="A579" s="10" t="s">
         <v>23</v>
       </c>
@@ -43904,7 +43904,7 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="580" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:27">
+    <row r="580" s="1" customFormat="1" customHeight="1" spans="1:27">
       <c r="A580" s="10" t="s">
         <v>23</v>
       </c>
@@ -43966,7 +43966,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="581" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:27">
+    <row r="581" s="1" customFormat="1" customHeight="1" spans="1:27">
       <c r="A581" s="10" t="s">
         <v>23</v>
       </c>
@@ -44029,7 +44029,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="582" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:27">
+    <row r="582" s="1" customFormat="1" customHeight="1" spans="1:27">
       <c r="A582" s="10" t="s">
         <v>23</v>
       </c>
@@ -44092,7 +44092,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="583" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:27">
+    <row r="583" s="1" customFormat="1" customHeight="1" spans="1:27">
       <c r="A583" s="10" t="s">
         <v>23</v>
       </c>
@@ -44155,7 +44155,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="584" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:27">
+    <row r="584" s="1" customFormat="1" customHeight="1" spans="1:27">
       <c r="A584" s="10" t="s">
         <v>23</v>
       </c>
@@ -44218,7 +44218,7 @@
         <v>1377</v>
       </c>
     </row>
-    <row r="585" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:27">
+    <row r="585" s="1" customFormat="1" customHeight="1" spans="1:27">
       <c r="A585" s="10" t="s">
         <v>23</v>
       </c>
@@ -44278,7 +44278,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="586" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:27">
+    <row r="586" s="1" customFormat="1" customHeight="1" spans="1:27">
       <c r="A586" s="10" t="s">
         <v>23</v>
       </c>
@@ -44341,7 +44341,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="587" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:27">
+    <row r="587" s="1" customFormat="1" customHeight="1" spans="1:27">
       <c r="A587" s="10" t="s">
         <v>23</v>
       </c>
@@ -44406,7 +44406,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="588" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:27">
+    <row r="588" s="1" customFormat="1" customHeight="1" spans="1:27">
       <c r="A588" s="10" t="s">
         <v>23</v>
       </c>
@@ -44471,7 +44471,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="589" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:27">
+    <row r="589" s="1" customFormat="1" customHeight="1" spans="1:27">
       <c r="A589" s="10" t="s">
         <v>23</v>
       </c>
@@ -44534,7 +44534,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="590" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:27">
+    <row r="590" s="1" customFormat="1" customHeight="1" spans="1:27">
       <c r="A590" s="10" t="s">
         <v>23</v>
       </c>
@@ -44594,7 +44594,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="591" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:27">
+    <row r="591" s="1" customFormat="1" customHeight="1" spans="1:27">
       <c r="A591" s="10" t="s">
         <v>23</v>
       </c>
@@ -44657,7 +44657,7 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="592" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:27">
+    <row r="592" s="1" customFormat="1" customHeight="1" spans="1:27">
       <c r="A592" s="10" t="s">
         <v>23</v>
       </c>
@@ -44722,7 +44722,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="593" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:27">
+    <row r="593" s="1" customFormat="1" customHeight="1" spans="1:27">
       <c r="A593" s="10" t="s">
         <v>23</v>
       </c>
@@ -44785,7 +44785,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="594" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:27">
+    <row r="594" s="1" customFormat="1" customHeight="1" spans="1:27">
       <c r="A594" s="10" t="s">
         <v>23</v>
       </c>
@@ -44845,7 +44845,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="595" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:27">
+    <row r="595" s="1" customFormat="1" customHeight="1" spans="1:27">
       <c r="A595" s="10" t="s">
         <v>23</v>
       </c>
@@ -44906,7 +44906,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="596" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:27">
+    <row r="596" s="1" customFormat="1" customHeight="1" spans="1:27">
       <c r="A596" s="10" t="s">
         <v>23</v>
       </c>
@@ -44966,7 +44966,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="597" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:27">
+    <row r="597" s="1" customFormat="1" customHeight="1" spans="1:27">
       <c r="A597" s="10" t="s">
         <v>23</v>
       </c>
@@ -45026,7 +45026,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="598" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:27">
+    <row r="598" s="1" customFormat="1" customHeight="1" spans="1:27">
       <c r="A598" s="10" t="s">
         <v>23</v>
       </c>
@@ -45087,7 +45087,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="599" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:27">
+    <row r="599" s="1" customFormat="1" customHeight="1" spans="1:27">
       <c r="A599" s="10" t="s">
         <v>23</v>
       </c>
@@ -45148,7 +45148,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="600" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:27">
+    <row r="600" s="1" customFormat="1" customHeight="1" spans="1:27">
       <c r="A600" s="10" t="s">
         <v>23</v>
       </c>
@@ -45209,7 +45209,7 @@
         <v>1506</v>
       </c>
     </row>
-    <row r="601" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:27">
+    <row r="601" s="1" customFormat="1" customHeight="1" spans="1:27">
       <c r="A601" s="10" t="s">
         <v>23</v>
       </c>
@@ -45270,7 +45270,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="602" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:27">
+    <row r="602" s="1" customFormat="1" customHeight="1" spans="1:27">
       <c r="A602" s="10" t="s">
         <v>23</v>
       </c>
@@ -45331,7 +45331,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="603" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:27">
+    <row r="603" s="1" customFormat="1" customHeight="1" spans="1:27">
       <c r="A603" s="10" t="s">
         <v>23</v>
       </c>
@@ -45389,7 +45389,7 @@
         <v>1533</v>
       </c>
     </row>
-    <row r="604" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:27">
+    <row r="604" s="1" customFormat="1" customHeight="1" spans="1:27">
       <c r="A604" s="10" t="s">
         <v>23</v>
       </c>
@@ -45447,7 +45447,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="605" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:27">
+    <row r="605" s="1" customFormat="1" customHeight="1" spans="1:27">
       <c r="A605" s="10" t="s">
         <v>23</v>
       </c>
@@ -45505,7 +45505,7 @@
         <v>1549</v>
       </c>
     </row>
-    <row r="606" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:27">
+    <row r="606" s="1" customFormat="1" customHeight="1" spans="1:27">
       <c r="A606" s="10" t="s">
         <v>23</v>
       </c>
@@ -45565,7 +45565,7 @@
         <v>1558</v>
       </c>
     </row>
-    <row r="607" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:27">
+    <row r="607" s="1" customFormat="1" customHeight="1" spans="1:27">
       <c r="A607" s="10" t="s">
         <v>23</v>
       </c>
@@ -45626,7 +45626,7 @@
         <v>1566</v>
       </c>
     </row>
-    <row r="608" s="2" customFormat="1" hidden="1" customHeight="1" spans="1:27">
+    <row r="608" s="2" customFormat="1" customHeight="1" spans="1:27">
       <c r="A608" s="23" t="s">
         <v>23</v>
       </c>
@@ -45689,7 +45689,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="609" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:27">
+    <row r="609" s="1" customFormat="1" customHeight="1" spans="1:27">
       <c r="A609" s="10" t="s">
         <v>23</v>
       </c>
@@ -45750,7 +45750,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="610" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:27">
+    <row r="610" s="1" customFormat="1" customHeight="1" spans="1:27">
       <c r="A610" s="10" t="s">
         <v>23</v>
       </c>
@@ -45808,7 +45808,7 @@
         <v>1590</v>
       </c>
     </row>
-    <row r="611" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:26">
+    <row r="611" s="1" customFormat="1" customHeight="1" spans="1:26">
       <c r="A611" s="10" t="s">
         <v>23</v>
       </c>
@@ -45866,7 +45866,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="612" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:26">
+    <row r="612" s="1" customFormat="1" customHeight="1" spans="1:26">
       <c r="A612" s="10" t="s">
         <v>23</v>
       </c>
@@ -45924,7 +45924,7 @@
         <v>1473</v>
       </c>
     </row>
-    <row r="613" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:26">
+    <row r="613" s="1" customFormat="1" customHeight="1" spans="1:26">
       <c r="A613" s="10" t="s">
         <v>23</v>
       </c>
@@ -45982,7 +45982,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="614" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:26">
+    <row r="614" s="1" customFormat="1" customHeight="1" spans="1:26">
       <c r="A614" s="10" t="s">
         <v>23</v>
       </c>
@@ -46040,7 +46040,7 @@
         <v>1619</v>
       </c>
     </row>
-    <row r="615" s="8" customFormat="1" hidden="1" customHeight="1" spans="1:26">
+    <row r="615" s="8" customFormat="1" customHeight="1" spans="1:26">
       <c r="A615" s="123" t="s">
         <v>23</v>
       </c>
@@ -46154,7 +46154,7 @@
         <v>1696</v>
       </c>
     </row>
-    <row r="617" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:26">
+    <row r="617" s="1" customFormat="1" customHeight="1" spans="1:26">
       <c r="A617" s="10" t="s">
         <v>23</v>
       </c>
@@ -46269,7 +46269,7 @@
         <v>1696</v>
       </c>
     </row>
-    <row r="619" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:26">
+    <row r="619" s="1" customFormat="1" customHeight="1" spans="1:26">
       <c r="A619" s="10" t="s">
         <v>23</v>
       </c>
@@ -46382,7 +46382,7 @@
         <v>1715</v>
       </c>
     </row>
-    <row r="621" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:26">
+    <row r="621" s="1" customFormat="1" customHeight="1" spans="1:26">
       <c r="A621" s="10" t="s">
         <v>23</v>
       </c>
@@ -46492,7 +46492,7 @@
         <v>1696</v>
       </c>
     </row>
-    <row r="623" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:26">
+    <row r="623" s="1" customFormat="1" customHeight="1" spans="1:26">
       <c r="A623" s="10" t="s">
         <v>23</v>
       </c>
@@ -46602,7 +46602,7 @@
         <v>1696</v>
       </c>
     </row>
-    <row r="625" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:26">
+    <row r="625" s="1" customFormat="1" customHeight="1" spans="1:26">
       <c r="A625" s="10" t="s">
         <v>23</v>
       </c>
@@ -46715,7 +46715,7 @@
         <v>1715</v>
       </c>
     </row>
-    <row r="627" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:26">
+    <row r="627" s="1" customFormat="1" customHeight="1" spans="1:26">
       <c r="A627" s="10" t="s">
         <v>23</v>
       </c>
@@ -46831,7 +46831,7 @@
         <v>1748</v>
       </c>
     </row>
-    <row r="629" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:26">
+    <row r="629" s="1" customFormat="1" customHeight="1" spans="1:26">
       <c r="A629" s="10" t="s">
         <v>23</v>
       </c>
@@ -46944,7 +46944,7 @@
         <v>1748</v>
       </c>
     </row>
-    <row r="631" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:26">
+    <row r="631" s="1" customFormat="1" customHeight="1" spans="1:26">
       <c r="A631" s="10" t="s">
         <v>23</v>
       </c>
@@ -47058,7 +47058,7 @@
         <v>1715</v>
       </c>
     </row>
-    <row r="633" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:26">
+    <row r="633" s="1" customFormat="1" customHeight="1" spans="1:26">
       <c r="A633" s="10" t="s">
         <v>23</v>
       </c>
@@ -47174,7 +47174,7 @@
         <v>1748</v>
       </c>
     </row>
-    <row r="635" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:26">
+    <row r="635" s="1" customFormat="1" customHeight="1" spans="1:26">
       <c r="A635" s="10" t="s">
         <v>23</v>
       </c>
@@ -47232,7 +47232,7 @@
         <v>1748</v>
       </c>
     </row>
-    <row r="636" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:26">
+    <row r="636" s="1" customFormat="1" customHeight="1" spans="1:26">
       <c r="A636" s="10" t="s">
         <v>23</v>
       </c>
@@ -47277,7 +47277,7 @@
       <c r="Y636" s="9"/>
       <c r="Z636" s="9"/>
     </row>
-    <row r="637" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:26">
+    <row r="637" s="1" customFormat="1" customHeight="1" spans="1:26">
       <c r="A637" s="10" t="s">
         <v>23</v>
       </c>
@@ -47324,7 +47324,7 @@
       <c r="Y637" s="9"/>
       <c r="Z637" s="9"/>
     </row>
-    <row r="638" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:26">
+    <row r="638" s="1" customFormat="1" customHeight="1" spans="1:26">
       <c r="A638" s="10" t="s">
         <v>23</v>
       </c>
@@ -47428,7 +47428,7 @@
         <v>1715</v>
       </c>
     </row>
-    <row r="640" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:26">
+    <row r="640" s="1" customFormat="1" customHeight="1" spans="1:26">
       <c r="A640" s="10" t="s">
         <v>23</v>
       </c>
@@ -47541,7 +47541,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="642" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:26">
+    <row r="642" s="1" customFormat="1" customHeight="1" spans="1:26">
       <c r="A642" s="10" t="s">
         <v>23</v>
       </c>
@@ -47652,7 +47652,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="644" s="9" customFormat="1" hidden="1" customHeight="1" spans="1:26">
+    <row r="644" s="9" customFormat="1" customHeight="1" spans="1:26">
       <c r="A644" s="9" t="s">
         <v>23</v>
       </c>
@@ -47762,7 +47762,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="646" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:26">
+    <row r="646" s="1" customFormat="1" customHeight="1" spans="1:26">
       <c r="A646" s="10" t="s">
         <v>23</v>
       </c>
@@ -47876,7 +47876,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="648" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:26">
+    <row r="648" s="1" customFormat="1" customHeight="1" spans="1:26">
       <c r="A648" s="10" t="s">
         <v>23</v>
       </c>
@@ -47988,7 +47988,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="650" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:26">
+    <row r="650" s="1" customFormat="1" customHeight="1" spans="1:26">
       <c r="A650" s="10" t="s">
         <v>23</v>
       </c>
@@ -48100,7 +48100,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="652" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:26">
+    <row r="652" s="1" customFormat="1" customHeight="1" spans="1:26">
       <c r="A652" s="10" t="s">
         <v>23</v>
       </c>
@@ -48212,7 +48212,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="654" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:26">
+    <row r="654" s="1" customFormat="1" customHeight="1" spans="1:26">
       <c r="A654" s="10" t="s">
         <v>23</v>
       </c>
@@ -48328,7 +48328,7 @@
         <v>1748</v>
       </c>
     </row>
-    <row r="656" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:26">
+    <row r="656" s="1" customFormat="1" customHeight="1" spans="1:26">
       <c r="A656" s="10" t="s">
         <v>23</v>
       </c>
@@ -48384,7 +48384,7 @@
         <v>1748</v>
       </c>
     </row>
-    <row r="657" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="657" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A657" s="10" t="s">
         <v>23</v>
       </c>
@@ -48424,7 +48424,7 @@
       </c>
       <c r="U657" s="10"/>
     </row>
-    <row r="658" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="658" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A658" s="10" t="s">
         <v>23</v>
       </c>
@@ -48524,7 +48524,7 @@
         <v>1870</v>
       </c>
     </row>
-    <row r="660" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:26">
+    <row r="660" s="1" customFormat="1" customHeight="1" spans="1:26">
       <c r="A660" s="10" t="s">
         <v>23</v>
       </c>
@@ -48644,7 +48644,7 @@
         <v>1870</v>
       </c>
     </row>
-    <row r="662" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:26">
+    <row r="662" s="1" customFormat="1" customHeight="1" spans="1:26">
       <c r="A662" s="10" t="s">
         <v>23</v>
       </c>
@@ -48764,7 +48764,7 @@
         <v>1870</v>
       </c>
     </row>
-    <row r="664" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:26">
+    <row r="664" s="1" customFormat="1" customHeight="1" spans="1:26">
       <c r="A664" s="10" t="s">
         <v>23</v>
       </c>
@@ -48824,7 +48824,7 @@
         <v>1870</v>
       </c>
     </row>
-    <row r="665" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="665" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A665" s="10" t="s">
         <v>23</v>
       </c>
@@ -48869,7 +48869,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="666" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="666" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A666" s="10" t="s">
         <v>23</v>
       </c>
@@ -48912,7 +48912,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="667" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="667" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A667" s="10" t="s">
         <v>23</v>
       </c>
@@ -48956,7 +48956,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="668" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="668" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A668" s="10" t="s">
         <v>23</v>
       </c>
@@ -49044,7 +49044,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="670" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="670" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A670" s="10" t="s">
         <v>23</v>
       </c>
@@ -49134,7 +49134,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="672" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="672" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A672" s="10" t="s">
         <v>23</v>
       </c>
@@ -49176,7 +49176,7 @@
       </c>
       <c r="U672" s="10"/>
     </row>
-    <row r="673" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="673" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A673" s="10" t="s">
         <v>23</v>
       </c>
@@ -49221,7 +49221,7 @@
       </c>
       <c r="U673" s="10"/>
     </row>
-    <row r="674" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="674" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A674" s="10" t="s">
         <v>23</v>
       </c>
@@ -49263,7 +49263,7 @@
       </c>
       <c r="U674" s="10"/>
     </row>
-    <row r="675" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="675" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A675" s="10" t="s">
         <v>23</v>
       </c>
@@ -49310,7 +49310,7 @@
       </c>
       <c r="U675" s="10"/>
     </row>
-    <row r="676" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:22">
+    <row r="676" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A676" s="10" t="s">
         <v>23</v>
       </c>
@@ -49359,7 +49359,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="677" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="677" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A677" s="10" t="s">
         <v>23</v>
       </c>
@@ -49404,7 +49404,7 @@
       </c>
       <c r="U677" s="10"/>
     </row>
-    <row r="678" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="678" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A678" s="10" t="s">
         <v>23</v>
       </c>
@@ -49455,7 +49455,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="679" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="679" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A679" s="10" t="s">
         <v>23</v>
       </c>
@@ -49506,7 +49506,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="680" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="680" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A680" s="10" t="s">
         <v>23</v>
       </c>
@@ -49557,7 +49557,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="681" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="681" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A681" s="10" t="s">
         <v>23</v>
       </c>
@@ -49608,7 +49608,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="682" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="682" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A682" s="10" t="s">
         <v>23</v>
       </c>
@@ -49655,7 +49655,7 @@
         <v>1949</v>
       </c>
     </row>
-    <row r="683" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="683" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A683" s="10" t="s">
         <v>23</v>
       </c>
@@ -49704,7 +49704,7 @@
       </c>
       <c r="U683" s="10"/>
     </row>
-    <row r="684" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="684" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A684" s="10" t="s">
         <v>23</v>
       </c>
@@ -49751,7 +49751,7 @@
       </c>
       <c r="U684" s="10"/>
     </row>
-    <row r="685" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="685" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A685" s="10" t="s">
         <v>23</v>
       </c>
@@ -49773,7 +49773,7 @@
       <c r="T685" s="9"/>
       <c r="U685" s="10"/>
     </row>
-    <row r="686" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="686" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A686" s="10" t="s">
         <v>23</v>
       </c>
@@ -49823,7 +49823,7 @@
       </c>
       <c r="U686" s="10"/>
     </row>
-    <row r="687" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="687" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A687" s="10" t="s">
         <v>23</v>
       </c>
@@ -49872,7 +49872,7 @@
       </c>
       <c r="U687" s="10"/>
     </row>
-    <row r="688" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="688" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A688" s="10" t="s">
         <v>23</v>
       </c>
@@ -49922,7 +49922,7 @@
       </c>
       <c r="U688" s="10"/>
     </row>
-    <row r="689" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="689" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A689" s="10" t="s">
         <v>23</v>
       </c>
@@ -49971,7 +49971,7 @@
       </c>
       <c r="U689" s="10"/>
     </row>
-    <row r="690" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="690" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A690" s="10" t="s">
         <v>23</v>
       </c>
@@ -50021,7 +50021,7 @@
       </c>
       <c r="U690" s="10"/>
     </row>
-    <row r="691" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="691" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A691" s="10" t="s">
         <v>23</v>
       </c>
@@ -50067,7 +50067,7 @@
       </c>
       <c r="U691" s="10"/>
     </row>
-    <row r="692" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="692" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A692" s="10" t="s">
         <v>23</v>
       </c>
@@ -50113,7 +50113,7 @@
       </c>
       <c r="U692" s="10"/>
     </row>
-    <row r="693" s="2" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="693" s="2" customFormat="1" customHeight="1" spans="1:21">
       <c r="A693" s="23" t="s">
         <v>23</v>
       </c>
@@ -50161,7 +50161,7 @@
       </c>
       <c r="U693" s="23"/>
     </row>
-    <row r="694" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="694" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A694" s="10"/>
       <c r="B694" s="9"/>
       <c r="C694" s="10"/>
@@ -50187,7 +50187,7 @@
       </c>
       <c r="U694" s="10"/>
     </row>
-    <row r="695" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="695" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A695" s="10"/>
       <c r="B695" s="9"/>
       <c r="C695" s="10"/>
@@ -50206,7 +50206,7 @@
       <c r="T695" s="9"/>
       <c r="U695" s="10"/>
     </row>
-    <row r="696" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="696" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A696" s="10" t="s">
         <v>23</v>
       </c>
@@ -50228,7 +50228,7 @@
       <c r="T696" s="9"/>
       <c r="U696" s="10"/>
     </row>
-    <row r="697" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="697" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A697" s="10" t="s">
         <v>23</v>
       </c>
@@ -50250,7 +50250,7 @@
       <c r="T697" s="9"/>
       <c r="U697" s="10"/>
     </row>
-    <row r="698" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="698" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A698" s="155" t="s">
         <v>0</v>
       </c>
@@ -50305,7 +50305,7 @@
       <c r="T698" s="9"/>
       <c r="U698" s="10"/>
     </row>
-    <row r="699" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="699" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A699" s="10" t="s">
         <v>23</v>
       </c>
@@ -50360,7 +50360,7 @@
       <c r="T699" s="9"/>
       <c r="U699" s="10"/>
     </row>
-    <row r="700" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="700" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A700" s="10" t="s">
         <v>2001</v>
       </c>
@@ -50415,7 +50415,7 @@
       <c r="T700" s="9"/>
       <c r="U700" s="10"/>
     </row>
-    <row r="701" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="701" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A701" s="10" t="s">
         <v>2010</v>
       </c>
@@ -50470,7 +50470,7 @@
       <c r="T701" s="9"/>
       <c r="U701" s="10"/>
     </row>
-    <row r="702" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="702" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A702" s="10" t="s">
         <v>2019</v>
       </c>
@@ -50525,7 +50525,7 @@
       <c r="T702" s="9"/>
       <c r="U702" s="10"/>
     </row>
-    <row r="703" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="703" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A703" s="10" t="s">
         <v>2029</v>
       </c>
@@ -50580,7 +50580,7 @@
       <c r="T703" s="9"/>
       <c r="U703" s="10"/>
     </row>
-    <row r="704" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="704" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A704" s="10" t="s">
         <v>2039</v>
       </c>
@@ -50635,7 +50635,7 @@
       <c r="T704" s="9"/>
       <c r="U704" s="10"/>
     </row>
-    <row r="705" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="705" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A705" s="10" t="s">
         <v>2048</v>
       </c>
@@ -50690,7 +50690,7 @@
       <c r="T705" s="9"/>
       <c r="U705" s="10"/>
     </row>
-    <row r="706" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="706" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A706" s="10" t="s">
         <v>2057</v>
       </c>
@@ -50745,7 +50745,7 @@
       <c r="T706" s="9"/>
       <c r="U706" s="10"/>
     </row>
-    <row r="707" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="707" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A707" s="10" t="s">
         <v>2066</v>
       </c>
@@ -50800,7 +50800,7 @@
       <c r="T707" s="9"/>
       <c r="U707" s="10"/>
     </row>
-    <row r="708" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="708" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A708" s="10" t="s">
         <v>2001</v>
       </c>
@@ -50841,7 +50841,7 @@
       <c r="T708" s="9"/>
       <c r="U708" s="10"/>
     </row>
-    <row r="709" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="709" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A709" s="10" t="s">
         <v>2010</v>
       </c>
@@ -50882,7 +50882,7 @@
       <c r="T709" s="9"/>
       <c r="U709" s="10"/>
     </row>
-    <row r="710" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="710" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A710" s="10" t="s">
         <v>2019</v>
       </c>
@@ -50921,7 +50921,7 @@
       <c r="T710" s="9"/>
       <c r="U710" s="10"/>
     </row>
-    <row r="711" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="711" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A711" s="10" t="s">
         <v>2039</v>
       </c>
@@ -50960,7 +50960,7 @@
       <c r="T711" s="9"/>
       <c r="U711" s="10"/>
     </row>
-    <row r="712" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="712" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A712" s="10" t="s">
         <v>2048</v>
       </c>
@@ -50999,7 +50999,7 @@
       <c r="T712" s="9"/>
       <c r="U712" s="10"/>
     </row>
-    <row r="713" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="713" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A713" s="10" t="s">
         <v>23</v>
       </c>
@@ -51050,7 +51050,7 @@
       <c r="T713" s="9"/>
       <c r="U713" s="10"/>
     </row>
-    <row r="714" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="714" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A714" s="10" t="s">
         <v>23</v>
       </c>
@@ -51097,7 +51097,7 @@
       <c r="T714" s="9"/>
       <c r="U714" s="10"/>
     </row>
-    <row r="715" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="715" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A715" s="10" t="s">
         <v>2048</v>
       </c>
@@ -51136,7 +51136,7 @@
       <c r="T715" s="9"/>
       <c r="U715" s="10"/>
     </row>
-    <row r="716" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="716" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A716" s="10" t="s">
         <v>2001</v>
       </c>
@@ -51175,7 +51175,7 @@
       <c r="T716" s="9"/>
       <c r="U716" s="10"/>
     </row>
-    <row r="717" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="717" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A717" s="10" t="s">
         <v>2010</v>
       </c>
@@ -51214,7 +51214,7 @@
       <c r="T717" s="9"/>
       <c r="U717" s="10"/>
     </row>
-    <row r="718" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="718" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A718" s="10" t="s">
         <v>2019</v>
       </c>
@@ -51253,7 +51253,7 @@
       <c r="T718" s="9"/>
       <c r="U718" s="10"/>
     </row>
-    <row r="719" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="719" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A719" s="10" t="s">
         <v>2039</v>
       </c>
@@ -51290,7 +51290,7 @@
       <c r="T719" s="9"/>
       <c r="U719" s="10"/>
     </row>
-    <row r="720" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="720" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A720" s="10" t="s">
         <v>23</v>
       </c>
@@ -51329,7 +51329,7 @@
       <c r="T720" s="9"/>
       <c r="U720" s="10"/>
     </row>
-    <row r="721" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="721" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A721" s="10" t="s">
         <v>2001</v>
       </c>
@@ -51368,7 +51368,7 @@
       <c r="T721" s="9"/>
       <c r="U721" s="10"/>
     </row>
-    <row r="722" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="722" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A722" s="10" t="s">
         <v>2019</v>
       </c>
@@ -51407,7 +51407,7 @@
       <c r="T722" s="9"/>
       <c r="U722" s="10"/>
     </row>
-    <row r="723" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="723" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A723" s="10" t="s">
         <v>2010</v>
       </c>
@@ -51446,7 +51446,7 @@
       <c r="T723" s="9"/>
       <c r="U723" s="10"/>
     </row>
-    <row r="724" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="724" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A724" s="10" t="s">
         <v>2145</v>
       </c>
@@ -51485,7 +51485,7 @@
       <c r="T724" s="9"/>
       <c r="U724" s="10"/>
     </row>
-    <row r="725" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="725" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A725" s="10" t="s">
         <v>2048</v>
       </c>
@@ -51524,7 +51524,7 @@
       <c r="T725" s="9"/>
       <c r="U725" s="10"/>
     </row>
-    <row r="726" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="726" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A726" s="10" t="s">
         <v>2039</v>
       </c>
@@ -51563,7 +51563,7 @@
       <c r="T726" s="9"/>
       <c r="U726" s="10"/>
     </row>
-    <row r="727" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="727" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A727" s="10" t="s">
         <v>2158</v>
       </c>
@@ -51604,7 +51604,7 @@
       <c r="T727" s="9"/>
       <c r="U727" s="10"/>
     </row>
-    <row r="728" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="728" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A728" s="10" t="s">
         <v>2158</v>
       </c>
@@ -51643,7 +51643,7 @@
       <c r="T728" s="9"/>
       <c r="U728" s="10"/>
     </row>
-    <row r="729" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="729" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A729" s="10" t="s">
         <v>2158</v>
       </c>
@@ -51682,7 +51682,7 @@
       <c r="T729" s="9"/>
       <c r="U729" s="10"/>
     </row>
-    <row r="730" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="730" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A730" s="10"/>
       <c r="B730" s="9" t="s">
         <v>2172</v>
@@ -51719,7 +51719,7 @@
       <c r="T730" s="9"/>
       <c r="U730" s="10"/>
     </row>
-    <row r="731" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:21">
+    <row r="731" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A731" s="10"/>
       <c r="B731" s="9" t="s">
         <v>2176</v>
@@ -51819,23 +51819,6 @@
       <c r="U734" s="10"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AA731">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="个人PC站"/>
-        <filter val="个人PC站（北京站）"/>
-        <filter val="个人PC站(小蜜蜂二级)"/>
-        <filter val="个人PC站（大慈站）"/>
-        <filter val="个人PC站（打不开）"/>
-        <filter val="个人PC站(男科站修改)"/>
-        <filter val="个人PC站(男科站修改)（替换）"/>
-        <filter val="个人PC站(V2)"/>
-        <filter val="个人PC站（替换）"/>
-        <filter val="个人PC站(gzpfb.01ny.cn301)"/>
-      </filters>
-    </filterColumn>
-    <extLst/>
-  </autoFilter>
   <conditionalFormatting sqref="G137">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>

--- a/工作日志/贵州2019新网站列表 .xlsx.xlsx
+++ b/工作日志/贵州2019新网站列表 .xlsx.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="10125" windowHeight="9510"/>
+    <workbookView windowWidth="20925" windowHeight="9780"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -6857,8 +6857,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="177" formatCode="[$-1010804]General"/>
@@ -7071,9 +7071,44 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7086,38 +7121,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7132,6 +7138,14 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -7139,17 +7153,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7163,23 +7177,16 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7200,13 +7207,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7256,7 +7256,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7268,19 +7352,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7292,25 +7388,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7328,85 +7412,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7431,12 +7437,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7466,45 +7466,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -7528,11 +7489,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7548,6 +7515,39 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7570,10 +7570,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7582,16 +7582,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7600,121 +7600,121 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -8722,8 +8722,8 @@
   <sheetPr/>
   <dimension ref="A1:AA734"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="A1:X289"/>
+    <sheetView tabSelected="1" topLeftCell="G359" workbookViewId="0">
+      <selection activeCell="R363" sqref="R363"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -8740,7 +8740,7 @@
     <col min="10" max="10" width="16.75" style="1" customWidth="1"/>
     <col min="11" max="11" width="6" style="10" customWidth="1"/>
     <col min="12" max="12" width="7.875" style="10" customWidth="1"/>
-    <col min="13" max="13" width="7.25" style="1" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="7.25" style="1" customWidth="1"/>
     <col min="14" max="14" width="7.5" style="1" customWidth="1"/>
     <col min="15" max="15" width="9.30833333333333" style="11" customWidth="1"/>
     <col min="16" max="16" width="8.5" style="12" customWidth="1"/>
